--- a/data/output/tables/pib_componentes.xlsx
+++ b/data/output/tables/pib_componentes.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,283 +465,282 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2">
-        <v>44926</v>
-      </c>
-      <c r="B2">
-        <v>21624.36529094349</v>
-      </c>
-      <c r="C2">
-        <v>31954.16796875</v>
-      </c>
-      <c r="D2">
-        <v>171709.8999700074</v>
-      </c>
-      <c r="E2">
-        <v>34974.359375</v>
+        <v>44834</v>
       </c>
       <c r="F2">
-        <v>68285.0546875</v>
+        <v>67004.9765625</v>
       </c>
       <c r="G2">
-        <v>-532.1901096887078</v>
+        <v>328.4239919323279</v>
       </c>
       <c r="H2">
-        <v>196342.55</v>
-      </c>
-      <c r="I2">
-        <v>191445.5478075122</v>
-      </c>
-      <c r="J2">
-        <v>4897.002192487795</v>
-      </c>
-      <c r="K2">
-        <v>2.494111537457263</v>
+        <v>185615.28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>45016</v>
-      </c>
-      <c r="B3">
-        <v>21050.18716699174</v>
-      </c>
-      <c r="C3">
-        <v>31954.162109375</v>
+        <v>44926</v>
       </c>
       <c r="D3">
-        <v>169213.5595306227</v>
+        <v>171709.8999700074</v>
       </c>
       <c r="E3">
         <v>34974.359375</v>
       </c>
       <c r="F3">
-        <v>68285.0546875</v>
+        <v>66977.78125</v>
       </c>
       <c r="G3">
-        <v>4568.952902405586</v>
+        <v>-451.525223822877</v>
       </c>
       <c r="H3">
-        <v>200812.4</v>
-      </c>
-      <c r="I3">
-        <v>193476.166396895</v>
-      </c>
-      <c r="J3">
-        <v>7336.233603104978</v>
-      </c>
-      <c r="K3">
-        <v>3.6532771896083</v>
+        <v>196342.55</v>
       </c>
       <c r="L3">
-        <v>2.276556966383492</v>
-      </c>
-      <c r="M3">
-        <v>1.060676841346297</v>
+        <v>5.779303298737037</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>45107</v>
+        <v>45016</v>
       </c>
       <c r="B4">
-        <v>23211.47057721232</v>
+        <v>22173.79119999996</v>
       </c>
       <c r="C4">
-        <v>31954.16796875</v>
+        <v>32614.00584121219</v>
       </c>
       <c r="D4">
-        <v>172418.9908996065</v>
+        <v>169213.5595306227</v>
       </c>
       <c r="E4">
-        <v>36092.75</v>
+        <v>34974.359375</v>
       </c>
       <c r="F4">
-        <v>68285.0546875</v>
+        <v>66976.84375</v>
       </c>
       <c r="G4">
-        <v>26.35524456149005</v>
+        <v>3926.70554175714</v>
       </c>
       <c r="H4">
-        <v>200847.42</v>
+        <v>200812.4</v>
       </c>
       <c r="I4">
-        <v>195418.6800026303</v>
+        <v>195925.577738592</v>
       </c>
       <c r="J4">
-        <v>5428.739997369761</v>
+        <v>4886.822261408</v>
       </c>
       <c r="K4">
-        <v>2.702917467085094</v>
+        <v>2.433526147492884</v>
       </c>
       <c r="L4">
-        <v>0.01743916212346708</v>
-      </c>
-      <c r="M4">
-        <v>1.004006664960677</v>
+        <v>2.276556966383492</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>45199</v>
+        <v>45107</v>
       </c>
       <c r="B5">
-        <v>23397.18550472394</v>
+        <v>22761.82099999995</v>
       </c>
       <c r="C5">
-        <v>31954.119140625</v>
+        <v>32760.81616090013</v>
       </c>
       <c r="D5">
-        <v>177977.1007261531</v>
+        <v>172418.9908996065</v>
       </c>
       <c r="E5">
         <v>36092.75</v>
       </c>
       <c r="F5">
-        <v>68264.671875</v>
+        <v>66976.84375</v>
       </c>
       <c r="G5">
-        <v>-155.5305728930464</v>
+        <v>1736.676112089207</v>
       </c>
       <c r="H5">
-        <v>203697.61</v>
+        <v>200847.42</v>
       </c>
       <c r="I5">
-        <v>201000.952923609</v>
+        <v>198794.2104225958</v>
       </c>
       <c r="J5">
-        <v>2696.657076390984</v>
+        <v>2053.209577404254</v>
       </c>
       <c r="K5">
-        <v>1.323853076327692</v>
+        <v>1.022273314441507</v>
       </c>
       <c r="L5">
-        <v>1.419082206781641</v>
+        <v>0.01743916212346708</v>
       </c>
       <c r="M5">
-        <v>2.856570784790691</v>
+        <v>1.464144047507232</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>45291</v>
+        <v>45199</v>
       </c>
       <c r="B6">
-        <v>23404.95308886089</v>
+        <v>22338.86154999996</v>
       </c>
       <c r="C6">
-        <v>31954.07421875</v>
+        <v>33259.00609833477</v>
       </c>
       <c r="D6">
-        <v>176835.1143191989</v>
+        <v>177977.1007261531</v>
       </c>
       <c r="E6">
         <v>36092.75</v>
       </c>
       <c r="F6">
-        <v>68264.671875</v>
+        <v>66976.84375</v>
       </c>
       <c r="G6">
-        <v>-804.569713549319</v>
+        <v>-209.5900493806358</v>
       </c>
       <c r="H6">
-        <v>212696.62</v>
+        <v>203697.61</v>
       </c>
       <c r="I6">
-        <v>199217.6500382605</v>
+        <v>202481.2845751072</v>
       </c>
       <c r="J6">
-        <v>13478.96996173952</v>
+        <v>1216.325424892799</v>
       </c>
       <c r="K6">
-        <v>6.337181080611212</v>
+        <v>0.5971230712489944</v>
       </c>
       <c r="L6">
-        <v>4.417827975497612</v>
+        <v>1.419082206781641</v>
       </c>
       <c r="M6">
-        <v>-0.8872111596537002</v>
+        <v>1.854719080939771</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>45382</v>
+        <v>45291</v>
       </c>
       <c r="B7">
-        <v>22700.67070729721</v>
+        <v>22953.16399999995</v>
       </c>
       <c r="C7">
-        <v>31954.068359375</v>
+        <v>33242.83035426878</v>
       </c>
       <c r="D7">
-        <v>160264.3188418842</v>
+        <v>176835.1143191989</v>
       </c>
       <c r="E7">
         <v>36092.75</v>
       </c>
       <c r="F7">
-        <v>68264.671875</v>
+        <v>66976.84375</v>
       </c>
       <c r="G7">
-        <v>2040.652843892101</v>
+        <v>-647.4267514451029</v>
       </c>
       <c r="H7">
-        <v>215046.12</v>
+        <v>212696.62</v>
       </c>
       <c r="I7">
-        <v>184787.7888774485</v>
+        <v>201499.5881720225</v>
       </c>
       <c r="J7">
-        <v>30258.33112255146</v>
+        <v>11197.03182797745</v>
       </c>
       <c r="K7">
-        <v>14.07062407010713</v>
+        <v>5.26432052750883</v>
       </c>
       <c r="L7">
-        <v>1.104624981816826</v>
+        <v>4.417827975497612</v>
       </c>
       <c r="M7">
-        <v>-7.243264418609819</v>
+        <v>-0.4848331563801933</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>45473</v>
+        <v>45382</v>
       </c>
       <c r="B8">
-        <v>24534.96494418345</v>
+        <v>21010.89227499996</v>
       </c>
       <c r="C8">
-        <v>31954.068359375</v>
+        <v>34059.29833486143</v>
       </c>
       <c r="D8">
-        <v>161828.2559119157</v>
+        <v>160264.3188418842</v>
       </c>
       <c r="E8">
         <v>36092.75</v>
       </c>
       <c r="F8">
-        <v>68264.671875</v>
+        <v>66978.7734375</v>
       </c>
       <c r="G8">
-        <v>-86.11926203032328</v>
+        <v>2360.244350273477</v>
       </c>
       <c r="H8">
+        <v>215046.12</v>
+      </c>
+      <c r="I8">
+        <v>186808.7303645191</v>
+      </c>
+      <c r="J8">
+        <v>28237.38963548091</v>
+      </c>
+      <c r="K8">
+        <v>13.13085287727159</v>
+      </c>
+      <c r="L8">
+        <v>1.104624981816826</v>
+      </c>
+      <c r="M8">
+        <v>-7.290763192509209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B9">
+        <v>21365.76377499995</v>
+      </c>
+      <c r="C9">
+        <v>34164.91788619079</v>
+      </c>
+      <c r="D9">
+        <v>161828.2559119157</v>
+      </c>
+      <c r="E9">
+        <v>36092.75</v>
+      </c>
+      <c r="F9">
+        <v>66986.1484375</v>
+      </c>
+      <c r="G9">
+        <v>1411.809652393953</v>
+      </c>
+      <c r="H9">
         <v>214009.32</v>
       </c>
-      <c r="I8">
-        <v>186059.2480784438</v>
-      </c>
-      <c r="J8">
-        <v>27950.07192155617</v>
-      </c>
-      <c r="K8">
-        <v>13.06021248119295</v>
-      </c>
-      <c r="L8">
+      <c r="I9">
+        <v>187877.3487880004</v>
+      </c>
+      <c r="J9">
+        <v>26131.97121199963</v>
+      </c>
+      <c r="K9">
+        <v>12.21066970915081</v>
+      </c>
+      <c r="L9">
         <v>-0.4821291358337421</v>
       </c>
-      <c r="M8">
-        <v>0.6880645137425923</v>
+      <c r="M9">
+        <v>0.5720388021459799</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/tables/pib_componentes.xlsx
+++ b/data/output/tables/pib_componentes.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,282 +465,271 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2">
-        <v>44834</v>
+        <v>45016</v>
+      </c>
+      <c r="B2">
+        <v>25702.96947411478</v>
+      </c>
+      <c r="C2">
+        <v>32167.42414202337</v>
+      </c>
+      <c r="D2">
+        <v>171308.148205446</v>
+      </c>
+      <c r="E2">
+        <v>34910.72377962963</v>
       </c>
       <c r="F2">
-        <v>67004.9765625</v>
+        <v>64375.91624867727</v>
       </c>
       <c r="G2">
-        <v>328.4239919323279</v>
+        <v>-357.8625346518731</v>
       </c>
       <c r="H2">
-        <v>185615.28</v>
+        <v>200812.4</v>
+      </c>
+      <c r="I2">
+        <v>199355.4868178846</v>
+      </c>
+      <c r="J2">
+        <v>1456.913182115357</v>
+      </c>
+      <c r="K2">
+        <v>0.7255095711795472</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
-        <v>44926</v>
+        <v>45107</v>
+      </c>
+      <c r="B3">
+        <v>19718.33514971565</v>
+      </c>
+      <c r="C3">
+        <v>33733.85564950843</v>
       </c>
       <c r="D3">
-        <v>171709.8999700074</v>
+        <v>176943.692085853</v>
       </c>
       <c r="E3">
-        <v>34974.359375</v>
+        <v>34910.72377962963</v>
       </c>
       <c r="F3">
-        <v>66977.78125</v>
+        <v>63688.41889126987</v>
       </c>
       <c r="G3">
-        <v>-451.525223822877</v>
+        <v>1435.407808837894</v>
       </c>
       <c r="H3">
-        <v>196342.55</v>
+        <v>200847.42</v>
+      </c>
+      <c r="I3">
+        <v>203053.5955822747</v>
+      </c>
+      <c r="J3">
+        <v>-2206.175582274736</v>
+      </c>
+      <c r="K3">
+        <v>-1.09843361805431</v>
       </c>
       <c r="L3">
-        <v>5.779303298737037</v>
+        <v>0.01743916212346708</v>
+      </c>
+      <c r="M3">
+        <v>1.855032346196928</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
-        <v>45016</v>
+        <v>45199</v>
       </c>
       <c r="B4">
-        <v>22173.79119999996</v>
+        <v>21422.62108999083</v>
       </c>
       <c r="C4">
-        <v>32614.00584121219</v>
+        <v>34138.58766226739</v>
       </c>
       <c r="D4">
-        <v>169213.5595306227</v>
+        <v>179025.6645060735</v>
       </c>
       <c r="E4">
-        <v>34974.359375</v>
+        <v>34910.72377962963</v>
       </c>
       <c r="F4">
-        <v>66976.84375</v>
+        <v>63444.10397089949</v>
       </c>
       <c r="G4">
-        <v>3926.70554175714</v>
+        <v>-511.5974068927626</v>
       </c>
       <c r="H4">
-        <v>200812.4</v>
+        <v>203697.61</v>
       </c>
       <c r="I4">
-        <v>195925.577738592</v>
+        <v>205541.8956601691</v>
       </c>
       <c r="J4">
-        <v>4886.822261408</v>
+        <v>-1844.285660169116</v>
       </c>
       <c r="K4">
-        <v>2.433526147492884</v>
+        <v>-0.90540368154988</v>
       </c>
       <c r="L4">
-        <v>2.276556966383492</v>
+        <v>1.419082206781641</v>
+      </c>
+      <c r="M4">
+        <v>1.225440047372195</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
-        <v>45107</v>
+        <v>45291</v>
       </c>
       <c r="B5">
-        <v>22761.82099999995</v>
+        <v>24317.84768695892</v>
       </c>
       <c r="C5">
-        <v>32760.81616090013</v>
+        <v>34506.75613616379</v>
       </c>
       <c r="D5">
-        <v>172418.9908996065</v>
+        <v>182139.0825480125</v>
       </c>
       <c r="E5">
-        <v>36092.75</v>
+        <v>34552.30513257081</v>
       </c>
       <c r="F5">
-        <v>66976.84375</v>
+        <v>63983.6832208995</v>
       </c>
       <c r="G5">
-        <v>1736.676112089207</v>
+        <v>-766.2282455846032</v>
       </c>
       <c r="H5">
-        <v>200847.42</v>
+        <v>212696.62</v>
       </c>
       <c r="I5">
-        <v>198794.2104225958</v>
+        <v>210766.0800372219</v>
       </c>
       <c r="J5">
-        <v>2053.209577404254</v>
+        <v>1930.539962778072</v>
       </c>
       <c r="K5">
-        <v>1.022273314441507</v>
+        <v>0.9076495727943733</v>
       </c>
       <c r="L5">
-        <v>0.01743916212346708</v>
+        <v>4.417827975497612</v>
       </c>
       <c r="M5">
-        <v>1.464144047507232</v>
+        <v>2.541664004933653</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="2">
-        <v>45199</v>
+        <v>45382</v>
       </c>
       <c r="B6">
-        <v>22338.86154999996</v>
+        <v>27871.16216302907</v>
       </c>
       <c r="C6">
-        <v>33259.00609833477</v>
+        <v>34933.82388953003</v>
       </c>
       <c r="D6">
-        <v>177977.1007261531</v>
+        <v>185382.2367205507</v>
       </c>
       <c r="E6">
-        <v>36092.75</v>
+        <v>34456.68284923748</v>
       </c>
       <c r="F6">
-        <v>66976.84375</v>
+        <v>64257.57096216934</v>
       </c>
       <c r="G6">
-        <v>-209.5900493806358</v>
+        <v>527.904103297866</v>
       </c>
       <c r="H6">
-        <v>203697.61</v>
+        <v>215046.12</v>
       </c>
       <c r="I6">
-        <v>202481.2845751072</v>
+        <v>218914.2387634758</v>
       </c>
       <c r="J6">
-        <v>1216.325424892799</v>
+        <v>-3868.118763475795</v>
       </c>
       <c r="K6">
-        <v>0.5971230712489944</v>
+        <v>-1.79873915580332</v>
       </c>
       <c r="L6">
-        <v>1.419082206781641</v>
+        <v>1.104624981816826</v>
       </c>
       <c r="M6">
-        <v>1.854719080939771</v>
+        <v>3.865972515508598</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="2">
-        <v>45291</v>
+        <v>45473</v>
       </c>
       <c r="B7">
-        <v>22953.16399999995</v>
+        <v>21531.94451081581</v>
       </c>
       <c r="C7">
-        <v>33242.83035426878</v>
+        <v>35596.14854586888</v>
       </c>
       <c r="D7">
-        <v>176835.1143191989</v>
+        <v>187550.625266466</v>
       </c>
       <c r="E7">
-        <v>36092.75</v>
+        <v>34456.68284923748</v>
       </c>
       <c r="F7">
-        <v>66976.84375</v>
+        <v>63262.37202407408</v>
       </c>
       <c r="G7">
-        <v>-647.4267514451029</v>
+        <v>581.8368983399583</v>
       </c>
       <c r="H7">
-        <v>212696.62</v>
+        <v>214009.32</v>
       </c>
       <c r="I7">
-        <v>201499.5881720225</v>
+        <v>216454.8660466541</v>
       </c>
       <c r="J7">
-        <v>11197.03182797745</v>
+        <v>-2445.546046654053</v>
       </c>
       <c r="K7">
-        <v>5.26432052750883</v>
+        <v>-1.142728759034445</v>
       </c>
       <c r="L7">
-        <v>4.417827975497612</v>
+        <v>-0.4821291358337421</v>
       </c>
       <c r="M7">
-        <v>-0.4848331563801933</v>
+        <v>-1.12344118441694</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="2">
-        <v>45382</v>
+        <v>45565</v>
       </c>
       <c r="B8">
-        <v>21010.89227499996</v>
+        <v>23172.10637855494</v>
       </c>
       <c r="C8">
-        <v>34059.29833486143</v>
+        <v>35879.01972636001</v>
       </c>
       <c r="D8">
-        <v>160264.3188418842</v>
+        <v>188801.8538153375</v>
       </c>
       <c r="E8">
-        <v>36092.75</v>
+        <v>34456.68284923748</v>
       </c>
       <c r="F8">
-        <v>66978.7734375</v>
+        <v>63036.08069074076</v>
       </c>
       <c r="G8">
-        <v>2360.244350273477</v>
-      </c>
-      <c r="H8">
-        <v>215046.12</v>
+        <v>686.3319367553247</v>
       </c>
       <c r="I8">
-        <v>186808.7303645191</v>
-      </c>
-      <c r="J8">
-        <v>28237.38963548091</v>
-      </c>
-      <c r="K8">
-        <v>13.13085287727159</v>
-      </c>
-      <c r="L8">
-        <v>1.104624981816826</v>
+        <v>219959.9140155045</v>
       </c>
       <c r="M8">
-        <v>-7.290763192509209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2">
-        <v>45473</v>
-      </c>
-      <c r="B9">
-        <v>21365.76377499995</v>
-      </c>
-      <c r="C9">
-        <v>34164.91788619079</v>
-      </c>
-      <c r="D9">
-        <v>161828.2559119157</v>
-      </c>
-      <c r="E9">
-        <v>36092.75</v>
-      </c>
-      <c r="F9">
-        <v>66986.1484375</v>
-      </c>
-      <c r="G9">
-        <v>1411.809652393953</v>
-      </c>
-      <c r="H9">
-        <v>214009.32</v>
-      </c>
-      <c r="I9">
-        <v>187877.3487880004</v>
-      </c>
-      <c r="J9">
-        <v>26131.97121199963</v>
-      </c>
-      <c r="K9">
-        <v>12.21066970915081</v>
-      </c>
-      <c r="L9">
-        <v>-0.4821291358337421</v>
-      </c>
-      <c r="M9">
-        <v>0.5720388021459799</v>
+        <v>1.619297377262452</v>
       </c>
     </row>
   </sheetData>
